--- a/Gestion de projet/PAQL/ISO 9126 Evaluation des versions/Eval V1.1 ISO9126.xlsx
+++ b/Gestion de projet/PAQL/ISO 9126 Evaluation des versions/Eval V1.1 ISO9126.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -763,44 +763,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -809,9 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,105 +792,135 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,58 +1224,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="23" customWidth="1"/>
     <col min="5" max="5" width="40.140625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="66">
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="70">
         <v>1</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1290,61 +1290,61 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1353,61 +1353,61 @@
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1416,61 +1416,61 @@
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>0.5</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -1479,98 +1479,98 @@
       <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>0</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="18">
         <v>1</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="28" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="29" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="3"/>
@@ -1591,61 +1591,61 @@
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>0.5</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="11"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -1654,61 +1654,61 @@
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>0.5</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -1717,61 +1717,61 @@
       <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="9">
         <v>1</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="11"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
@@ -1780,61 +1780,61 @@
       <c r="B45" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="9">
         <v>1</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="11"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -1843,107 +1843,107 @@
       <c r="B50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="9">
         <v>0.1</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="11"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="18">
         <v>1</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="28" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="38" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="40"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B60" s="3"/>
@@ -1964,61 +1964,61 @@
       <c r="B61" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
+      <c r="A62" s="9">
         <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="16"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="19"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2027,107 +2027,107 @@
       <c r="B66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+      <c r="A67" s="9">
         <v>1</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C67" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="46"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="48" t="s">
+      <c r="A68" s="9"/>
+      <c r="B68" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="11"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
+      <c r="A70" s="18">
         <v>0.1</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="28" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="51" t="s">
+      <c r="A73" s="9"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B76" s="3"/>
@@ -2148,61 +2148,61 @@
       <c r="B77" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="12">
+      <c r="A78" s="9">
         <v>1</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="16"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="19"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -2211,107 +2211,107 @@
       <c r="B82" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="12">
+      <c r="A83" s="9">
         <v>0</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="11"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="20"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="27">
+      <c r="A87" s="18">
         <v>0.5</v>
       </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="28" t="s">
+      <c r="A88" s="9"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="56" t="s">
+      <c r="A89" s="9"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B92" s="3"/>
@@ -2332,282 +2332,330 @@
       <c r="B93" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="12">
+      <c r="A94" s="9">
         <v>1</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="16"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="19"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
+      <c r="A98" s="18">
         <v>1</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="28" t="s">
+      <c r="A99" s="9"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="58" t="s">
+      <c r="A100" s="9"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="22"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="14"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="21"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="21"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="21"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="21"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
     <mergeCell ref="C96:E96"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="A1:G2"/>
@@ -2624,54 +2672,6 @@
     <mergeCell ref="C80:E80"/>
     <mergeCell ref="C82:E82"/>
     <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
